--- a/mbok.xlsx
+++ b/mbok.xlsx
@@ -9,6 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Brand" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Chipset" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Series" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="factor" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Audio" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="internet" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="wifi" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="DAC" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="271">
   <si>
     <t xml:space="preserve">MBID</t>
   </si>
@@ -28,745 +36,811 @@
     <t xml:space="preserve">PdName</t>
   </si>
   <si>
+    <t xml:space="preserve">BID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SrID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxfreq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIE3X16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIE3X8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIE3X4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIE3X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIE3X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dsub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_1Sata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_2Sata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_3Sata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_1PCIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_2PCIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_3PCIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_1PCIE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sata6G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uports_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uports_O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB31G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB31G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeC_G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeC_G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_MB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_MB3g1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB_MB3g2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeC_MBG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TypeC_MBG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lan1ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lan2ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lan3ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WfID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_Ekey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AudioOpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPDIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPDIF_MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU_Opt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sys_Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ASys_Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIO_Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W_Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lheads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB_Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGBW_Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital_LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5050JRGB_12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5050JRGB_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS2812B_RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORSAIR_RGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cslots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPTPort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPort_MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPTPort_MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderbolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altive_Headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat_Sensers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2_Raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M-K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310I-PLUS/CSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M-K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximus X APEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximus X FORMULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximus X HERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370-F Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370-I Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-F Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-G Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-H Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-I Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-E Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-F Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-G Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-H Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-I Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370-PRO Gaming (Wi-Fi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310-PLUS Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M-PLUS Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370-PLUS Gaming (Wi-Fi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-PLUS Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M-PLUS Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M-E Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-PLUS Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370-PRO Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310 D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M DS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M S2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M S2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 Aorus Gaming 3 Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 Aorus Gaming 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360N Aorus Gaming Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M Aorus Gaming 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 HD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M D3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M D3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M DS3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M Gaming HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360N Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 HD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370M D3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370N Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 Aorus Gaming 3 Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Aorus Gaming 7-OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Aorus Gaming 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Aorus Gaming 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Aorus Gaming 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Aorus Gaming K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370XP SLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 HD3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 HD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370P D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370M DS3H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370M D3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370N Wi-Fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Godlike Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Gaming M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Gaming Pro Carbon AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 KRAIT Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370M Gaming Pro AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370I Gaming Pro Carbon AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 Gaming Pro Carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 Gaming Pro Carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 Gaming Arctic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360m Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360I Gaming Pro AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M Gaming Arctic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Tomahawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370M Mortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370M Bazooka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M Mortar Titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M Mortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M Bazooka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 SLI PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 PC Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 A Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-A PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360-F PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M PRO-VDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M PRO-VH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360M PRO-VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310-A PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310-F PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310I PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BdID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brand</t>
   </si>
   <si>
+    <t xml:space="preserve">Asus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigabyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chipset</t>
   </si>
   <si>
+    <t xml:space="preserve">H310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z390</t>
+  </si>
+  <si>
     <t xml:space="preserve">Series</t>
   </si>
   <si>
-    <t xml:space="preserve">Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxfreq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIE3X16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIE3X8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIE3X4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIE3X2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIE3X1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCIE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dsub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_1Sata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_2Sata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_3Sata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_1PCIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_2PCIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_3PCIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_1PCIE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sata6G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uports_B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uports_O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB31G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB31G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeC_G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeC_G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_MB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_MB3g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB_MB3g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeC_MBG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypeC_MBG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet_Lan1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet_Lan2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet_Lan3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function</t>
+    <t xml:space="preserve">PRIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROG Strix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUF Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROG Maximus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra Durable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aorus Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRO Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enthusiast Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FtID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mATX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini ITX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended ATX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achipset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek ALC887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek ALC892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek ALC1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek ALC1220-VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek S1220A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROG SupremeFX S1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROG SupremeFX S1220A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Realtek ALC1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Realtek ALC892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Realtek ALC887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel GbE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel I219-V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killer E2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek RTL8111H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek RTL8111H-C</t>
   </si>
   <si>
     <t xml:space="preserve">WiFi</t>
   </si>
   <si>
-    <t xml:space="preserve">M2_Ekey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluetooth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AudioOpt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPDIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPDIF_MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achipset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU_Opt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sys_Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3ASys_Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIO_Pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W_Pump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lheads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGB_Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGBW_Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital_LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5050JRGB_12V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5050JRGB_5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS2812B_RGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORSAIR_RGB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cslots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPTPort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPort_MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPTPort_MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunderbolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altive_Headers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heat_Sensers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2_Raid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mATX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek RTL8111H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek ALC887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M-K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310I-PLUS/CSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini ITX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M-K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel I219V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek S1220A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximus X APEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROG Maximus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extended ATX </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROG SupremeFX S1220A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximus X FORMULA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intel 802.11a/b/g/n/ac</t>
   </si>
   <si>
-    <t xml:space="preserve">ROG SupremeFX S1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximus X HERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370-F Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROG Strix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370-I Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-F Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-G Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mATX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-H Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-I Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-E Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-F Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-G Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-H Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-I Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370-PRO Gaming (Wi-Fi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310-PLUS Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUF Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M-PLUS Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370-PLUS Gaming (Wi-Fi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-PLUS Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M-PLUS Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M-E Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-PLUS Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370-PRO Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310 D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigabyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultra Durable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel GbE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M DS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M S2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M S2P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360 Aorus Gaming 3 Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aorus Gaming </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek ALC892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360 Aorus Gaming 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360N Aorus Gaming Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M Aorus Gaming 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360 HD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M D3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M D3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M DS3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek ALC887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M Gaming HD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360N Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370 HD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370M D3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370N Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek ALC1220-VB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370 Aorus Gaming 3 Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Aorus Gaming 7-OP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aorus Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killer E2500</t>
+    <t xml:space="preserve"> Intel Wireless-AC 8265  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Wireless-AC 9462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killer 1535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DacID</t>
   </si>
   <si>
     <t xml:space="preserve">ES9018Q2C</t>
   </si>
   <si>
-    <t xml:space="preserve">Realtek ALC1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Aorus Gaming 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Aorus Gaming 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Aorus Gaming 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killer E2500 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Aorus Gaming K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370XP SLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 HD3P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 HD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370P D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370M DS3H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370M D3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370N Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Godlike Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enthusiast Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killer 1535</t>
+    <t xml:space="preserve">ES9018</t>
   </si>
   <si>
     <t xml:space="preserve">ESS ES9018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual Realtek ALC1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Gaming M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Gaming Pro Carbon AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel I219-V </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intel Wireless-AC 8265  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 KRAIT Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Gaming Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370M Gaming Pro AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370I Gaming Pro Carbon AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370 Gaming Pro Carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370 Gaming Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360 Gaming Pro Carbon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360 Gaming Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360 Gaming Arctic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360m Gaming Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360I Gaming Pro AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtek RTL8111H-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Wireless-AC 9462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual Realtek ALC892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M Gaming Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel I219-V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dual Realtek ALC887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M Gaming Arctic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 Tomahawk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenal Gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370M Mortar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H370M Bazooka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M Mortar Titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M Mortar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M Bazooka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 SLI PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRO Series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 PC Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z370 A Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-A PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360-F PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M PRO-VDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M PRO-VH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B360M PRO-VD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310-A PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310-F PRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-VDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-VHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-VH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-VD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-VL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310M PRO-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H310I PRO</t>
   </si>
 </sst>
 </file>
@@ -864,7 +938,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -901,19 +975,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,18 +1026,16 @@
   </sheetPr>
   <dimension ref="A1:CK146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE59" activeCellId="0" sqref="BE59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="25.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.01"/>
@@ -965,16 +1053,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="37" style="2" width="14.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="3" width="7.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="46" style="2" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="4" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="2" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="4" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="3" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="4" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="2" width="13.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="2" width="14.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="3" width="12.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="54" style="3" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="3" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="2" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="2" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="4" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="3" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="3" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="3" width="13.69"/>
@@ -1270,17 +1359,17 @@
       <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>2</v>
@@ -1359,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="AT2" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
@@ -1373,7 +1462,7 @@
       </c>
       <c r="BE2" s="4"/>
       <c r="BF2" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG2" s="3" t="n">
         <v>1</v>
@@ -1412,19 +1501,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>2</v>
@@ -1500,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
@@ -1514,7 +1603,7 @@
       </c>
       <c r="BE3" s="4"/>
       <c r="BF3" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG3" s="3" t="n">
         <v>1</v>
@@ -1554,19 +1643,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2</v>
@@ -1642,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
@@ -1656,7 +1745,7 @@
       </c>
       <c r="BE4" s="4"/>
       <c r="BF4" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG4" s="3" t="n">
         <v>1</v>
@@ -1695,19 +1784,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>2</v>
@@ -1784,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="AT5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
@@ -1803,7 +1892,7 @@
       </c>
       <c r="BE5" s="4"/>
       <c r="BF5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG5" s="3" t="n">
         <v>2</v>
@@ -1842,19 +1931,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3002</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>4</v>
@@ -1937,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
@@ -1951,7 +2040,7 @@
       </c>
       <c r="BE6" s="4"/>
       <c r="BF6" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG6" s="3" t="n">
         <v>3</v>
@@ -1998,19 +2087,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3002</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2</v>
@@ -2088,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
@@ -2102,7 +2191,7 @@
       </c>
       <c r="BE7" s="4"/>
       <c r="BF7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG7" s="3" t="n">
         <v>1</v>
@@ -2141,19 +2230,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>4</v>
@@ -2240,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="AT8" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
@@ -2254,7 +2343,7 @@
       </c>
       <c r="BE8" s="4"/>
       <c r="BF8" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="BG8" s="3" t="n">
         <v>5</v>
@@ -2317,19 +2406,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>4</v>
@@ -2407,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="AT9" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
@@ -2421,7 +2510,7 @@
       </c>
       <c r="BE9" s="4"/>
       <c r="BF9" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG9" s="3" t="n">
         <v>3</v>
@@ -2470,19 +2559,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>111</v>
+      <c r="F10" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2</v>
@@ -2560,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="AT10" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU10" s="4"/>
       <c r="AV10" s="4"/>
@@ -2574,7 +2663,7 @@
       </c>
       <c r="BE10" s="4"/>
       <c r="BF10" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG10" s="3" t="n">
         <v>9</v>
@@ -2636,19 +2725,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>4</v>
@@ -2734,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="AT11" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU11" s="4"/>
       <c r="AV11" s="4"/>
@@ -2742,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="AX11" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY11" s="3"/>
       <c r="AZ11" s="4" t="n">
@@ -2756,7 +2845,7 @@
       </c>
       <c r="BE11" s="4"/>
       <c r="BF11" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="BG11" s="3" t="n">
         <v>6</v>
@@ -2814,19 +2903,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>4</v>
@@ -2912,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="AT12" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU12" s="4"/>
       <c r="AV12" s="4"/>
@@ -2926,7 +3015,7 @@
       </c>
       <c r="BE12" s="4"/>
       <c r="BF12" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="BG12" s="3" t="n">
         <v>6</v>
@@ -2986,19 +3075,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>4</v>
@@ -3085,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="AT13" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU13" s="4"/>
       <c r="AV13" s="4"/>
@@ -3099,7 +3188,7 @@
       </c>
       <c r="BE13" s="4"/>
       <c r="BF13" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG13" s="3" t="n">
         <v>5</v>
@@ -3167,19 +3256,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>2</v>
@@ -3256,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="AT14" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU14" s="4"/>
       <c r="AV14" s="4"/>
@@ -3264,7 +3353,7 @@
         <v>2</v>
       </c>
       <c r="AX14" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY14" s="3"/>
       <c r="AZ14" s="4" t="n">
@@ -3278,7 +3367,7 @@
       </c>
       <c r="BE14" s="4"/>
       <c r="BF14" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG14" s="3" t="n">
         <v>2</v>
@@ -3321,19 +3410,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>4</v>
@@ -3420,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="AT15" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -3434,7 +3523,7 @@
       </c>
       <c r="BE15" s="4"/>
       <c r="BF15" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG15" s="3" t="n">
         <v>5</v>
@@ -3496,19 +3585,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>4</v>
@@ -3587,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="AT16" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -3601,7 +3690,7 @@
       </c>
       <c r="BE16" s="4"/>
       <c r="BF16" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG16" s="3" t="n">
         <v>3</v>
@@ -3644,19 +3733,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>4</v>
@@ -3738,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="AT17" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU17" s="4"/>
       <c r="AV17" s="4"/>
@@ -3752,7 +3841,7 @@
       </c>
       <c r="BE17" s="4"/>
       <c r="BF17" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG17" s="3" t="n">
         <v>4</v>
@@ -3803,19 +3892,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>2</v>
@@ -3895,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="AT18" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU18" s="4"/>
       <c r="AV18" s="4"/>
@@ -3903,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="AX18" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY18" s="3"/>
       <c r="AZ18" s="4" t="n">
@@ -3917,7 +4006,7 @@
       </c>
       <c r="BE18" s="4"/>
       <c r="BF18" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG18" s="3" t="n">
         <v>2</v>
@@ -3958,19 +4047,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>4</v>
@@ -4059,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AT19" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU19" s="4"/>
       <c r="AV19" s="4"/>
@@ -4067,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="AX19" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY19" s="3"/>
       <c r="AZ19" s="4" t="n">
@@ -4081,7 +4170,7 @@
       </c>
       <c r="BE19" s="4"/>
       <c r="BF19" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG19" s="3" t="n">
         <v>5</v>
@@ -4142,19 +4231,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>4</v>
@@ -4241,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU20" s="4"/>
       <c r="AV20" s="4"/>
@@ -4255,7 +4344,7 @@
       </c>
       <c r="BE20" s="4"/>
       <c r="BF20" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG20" s="3" t="n">
         <v>5</v>
@@ -4316,19 +4405,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>4</v>
@@ -4408,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="AT21" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU21" s="4"/>
       <c r="AV21" s="4"/>
@@ -4416,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="AX21" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY21" s="3"/>
       <c r="AZ21" s="4" t="n">
@@ -4430,7 +4519,7 @@
       </c>
       <c r="BE21" s="4"/>
       <c r="BF21" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG21" s="3" t="n">
         <v>4</v>
@@ -4480,19 +4569,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>4</v>
@@ -4574,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AT22" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU22" s="4"/>
       <c r="AV22" s="4"/>
@@ -4588,7 +4677,7 @@
       </c>
       <c r="BE22" s="4"/>
       <c r="BF22" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG22" s="3" t="n">
         <v>4</v>
@@ -4639,19 +4728,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>2</v>
@@ -4729,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="AT23" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU23" s="4"/>
       <c r="AV23" s="4"/>
@@ -4737,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="AX23" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY23" s="3"/>
       <c r="AZ23" s="4" t="n">
@@ -4751,7 +4840,7 @@
       </c>
       <c r="BE23" s="4"/>
       <c r="BF23" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BG23" s="3" t="n">
         <v>1</v>
@@ -4800,19 +4889,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>4</v>
@@ -4899,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="AT24" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU24" s="4"/>
       <c r="AV24" s="4"/>
@@ -4907,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="AX24" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY24" s="3"/>
       <c r="AZ24" s="4" t="n">
@@ -4921,7 +5010,7 @@
       </c>
       <c r="BE24" s="4"/>
       <c r="BF24" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG24" s="3" t="n">
         <v>3</v>
@@ -4976,19 +5065,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>3001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2</v>
@@ -5066,7 +5155,7 @@
         <v>1</v>
       </c>
       <c r="AT25" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
@@ -5080,7 +5169,7 @@
       </c>
       <c r="BE25" s="4"/>
       <c r="BF25" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG25" s="3" t="n">
         <v>2</v>
@@ -5123,19 +5212,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>2</v>
@@ -5209,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="AT26" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
@@ -5223,7 +5312,7 @@
       </c>
       <c r="BE26" s="4"/>
       <c r="BF26" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG26" s="3" t="n">
         <v>1</v>
@@ -5267,19 +5356,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>4</v>
@@ -5366,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AT27" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
@@ -5374,7 +5463,7 @@
         <v>2</v>
       </c>
       <c r="AX27" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY27" s="3"/>
       <c r="AZ27" s="4" t="n">
@@ -5388,7 +5477,7 @@
       </c>
       <c r="BE27" s="3"/>
       <c r="BF27" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG27" s="3" t="n">
         <v>3</v>
@@ -5443,19 +5532,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>4</v>
@@ -5537,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="AT28" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
@@ -5551,7 +5640,7 @@
       </c>
       <c r="BE28" s="3"/>
       <c r="BF28" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG28" s="3" t="n">
         <v>3</v>
@@ -5600,19 +5689,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>4</v>
@@ -5694,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="AT29" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
@@ -5708,7 +5797,7 @@
       </c>
       <c r="BE29" s="3"/>
       <c r="BF29" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG29" s="3" t="n">
         <v>2</v>
@@ -5752,19 +5841,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>101</v>
+        <v>129</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>2</v>
@@ -5842,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
@@ -5856,7 +5945,7 @@
       </c>
       <c r="BE30" s="3"/>
       <c r="BF30" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG30" s="3" t="n">
         <v>1</v>
@@ -5903,19 +5992,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>4</v>
@@ -6002,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="AT31" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
@@ -6016,7 +6105,7 @@
       </c>
       <c r="BE31" s="3"/>
       <c r="BF31" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG31" s="3" t="n">
         <v>4</v>
@@ -6064,19 +6153,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>4</v>
@@ -6158,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="AT32" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
@@ -6172,7 +6261,7 @@
       </c>
       <c r="BE32" s="3"/>
       <c r="BF32" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG32" s="3" t="n">
         <v>4</v>
@@ -6222,19 +6311,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D33" s="1" t="n">
+        <v>3001</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>2</v>
@@ -6312,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="AT33" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
@@ -6331,7 +6420,7 @@
       </c>
       <c r="BE33" s="3"/>
       <c r="BF33" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG33" s="3" t="n">
         <v>3</v>
@@ -6371,19 +6460,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D34" s="1" t="n">
+        <v>3001</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>2</v>
@@ -6448,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="AT34" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
@@ -6459,7 +6548,7 @@
       </c>
       <c r="BE34" s="3"/>
       <c r="BF34" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG34" s="3" t="n">
         <v>1</v>
@@ -6499,19 +6588,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D35" s="1" t="n">
+        <v>3001</v>
+      </c>
       <c r="E35" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>2</v>
@@ -6579,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
@@ -6590,7 +6679,7 @@
       </c>
       <c r="BE35" s="3"/>
       <c r="BF35" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG35" s="3" t="n">
         <v>1</v>
@@ -6623,19 +6712,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D36" s="1" t="n">
+        <v>3001</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>2</v>
@@ -6711,7 +6800,7 @@
         <v>1</v>
       </c>
       <c r="AT36" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
@@ -6722,7 +6811,7 @@
       </c>
       <c r="BE36" s="3"/>
       <c r="BF36" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG36" s="3" t="n">
         <v>1</v>
@@ -6766,19 +6855,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D37" s="1" t="n">
+        <v>3001</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>2</v>
@@ -6857,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="AT37" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
@@ -6868,7 +6957,7 @@
       </c>
       <c r="BE37" s="3"/>
       <c r="BF37" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG37" s="3" t="n">
         <v>1</v>
@@ -6901,19 +6990,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D38" s="1" t="n">
+        <v>3001</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>2</v>
@@ -6994,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="AT38" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
@@ -7005,7 +7094,7 @@
       </c>
       <c r="BE38" s="3"/>
       <c r="BF38" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG38" s="3" t="n">
         <v>1</v>
@@ -7049,19 +7138,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>4</v>
@@ -7147,16 +7236,16 @@
       <c r="AS39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AT39" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU39" s="11"/>
-      <c r="AV39" s="11"/>
+      <c r="AT39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
       <c r="AW39" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AX39" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY39" s="4" t="n">
         <v>1</v>
@@ -7172,7 +7261,7 @@
       </c>
       <c r="BE39" s="3"/>
       <c r="BF39" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG39" s="3" t="n">
         <v>4</v>
@@ -7230,19 +7319,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>4</v>
@@ -7329,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="AT40" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
@@ -7348,7 +7437,7 @@
       </c>
       <c r="BE40" s="3"/>
       <c r="BF40" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG40" s="3" t="n">
         <v>4</v>
@@ -7406,19 +7495,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>2</v>
@@ -7496,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="AT41" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
@@ -7504,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="AX41" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="4" t="n">
@@ -7515,7 +7604,7 @@
       </c>
       <c r="BE41" s="3"/>
       <c r="BF41" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG41" s="3" t="n">
         <v>2</v>
@@ -7558,19 +7647,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>4</v>
@@ -7652,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="AT42" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
@@ -7671,7 +7760,7 @@
       </c>
       <c r="BE42" s="3"/>
       <c r="BF42" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG42" s="3" t="n">
         <v>3</v>
@@ -7720,19 +7809,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>4</v>
@@ -7820,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="AT43" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
@@ -7839,7 +7928,7 @@
       </c>
       <c r="BE43" s="3"/>
       <c r="BF43" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG43" s="3" t="n">
         <v>3</v>
@@ -7894,19 +7983,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>4</v>
@@ -7996,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="AT44" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
@@ -8010,7 +8099,7 @@
       </c>
       <c r="BE44" s="3"/>
       <c r="BF44" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG44" s="3" t="n">
         <v>3</v>
@@ -8060,19 +8149,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>2</v>
@@ -8150,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="AT45" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
@@ -8161,7 +8250,7 @@
       </c>
       <c r="BE45" s="3"/>
       <c r="BF45" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG45" s="3" t="n">
         <v>1</v>
@@ -8205,19 +8294,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>4</v>
@@ -8298,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="AT46" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
@@ -8312,7 +8401,7 @@
       </c>
       <c r="BE46" s="3"/>
       <c r="BF46" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG46" s="3" t="n">
         <v>2</v>
@@ -8362,19 +8451,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>2</v>
@@ -8450,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="AT47" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
@@ -8461,7 +8550,7 @@
       </c>
       <c r="BE47" s="3"/>
       <c r="BF47" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG47" s="3" t="n">
         <v>1</v>
@@ -8503,19 +8592,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>2</v>
@@ -8586,17 +8675,17 @@
         <v>2</v>
       </c>
       <c r="AT48" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU48" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
+      </c>
+      <c r="AU48" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AV48" s="3"/>
       <c r="AW48" s="4" t="n">
         <v>2</v>
       </c>
       <c r="AX48" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY48" s="3"/>
       <c r="AZ48" s="4" t="n">
@@ -8610,7 +8699,7 @@
       </c>
       <c r="BE48" s="3"/>
       <c r="BF48" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG48" s="3" t="n">
         <v>2</v>
@@ -8657,19 +8746,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>4</v>
@@ -8758,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="AT49" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU49" s="0"/>
       <c r="AV49" s="0"/>
@@ -8777,7 +8866,7 @@
       </c>
       <c r="BE49" s="3"/>
       <c r="BF49" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG49" s="3" t="n">
         <v>3</v>
@@ -8835,19 +8924,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>4</v>
@@ -8934,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT50" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
@@ -8953,7 +9042,7 @@
       </c>
       <c r="BE50" s="3"/>
       <c r="BF50" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG50" s="3" t="n">
         <v>3</v>
@@ -9006,19 +9095,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>2</v>
@@ -9093,17 +9182,17 @@
         <v>2</v>
       </c>
       <c r="AT51" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU51" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
+      </c>
+      <c r="AU51" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AV51" s="3"/>
       <c r="AW51" s="4" t="n">
         <v>2</v>
       </c>
       <c r="AX51" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY51" s="3"/>
       <c r="AZ51" s="4" t="n">
@@ -9117,7 +9206,7 @@
       </c>
       <c r="BE51" s="3"/>
       <c r="BF51" s="8" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="BG51" s="3" t="n">
         <v>2</v>
@@ -9161,19 +9250,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>4</v>
@@ -9259,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="AT52" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
@@ -9267,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY52" s="4" t="n">
         <v>1</v>
@@ -9283,7 +9372,7 @@
       </c>
       <c r="BE52" s="3"/>
       <c r="BF52" s="8" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="BG52" s="3" t="n">
         <v>4</v>
@@ -9344,19 +9433,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>4</v>
@@ -9441,10 +9530,10 @@
         <v>2</v>
       </c>
       <c r="AT53" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU53" s="8" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="AU53" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="AV53" s="3"/>
       <c r="AY53" s="3"/>
@@ -9458,11 +9547,11 @@
       <c r="BD53" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BE53" s="8" t="s">
-        <v>172</v>
+      <c r="BE53" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BF53" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG53" s="3" t="n">
         <v>7</v>
@@ -9522,19 +9611,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>4</v>
@@ -9621,10 +9710,10 @@
         <v>2</v>
       </c>
       <c r="AT54" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU54" s="12" t="s">
-        <v>171</v>
+        <v>93</v>
+      </c>
+      <c r="AU54" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="AV54" s="3"/>
       <c r="AY54" s="3"/>
@@ -9638,11 +9727,11 @@
       <c r="BD54" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BE54" s="8" t="s">
-        <v>172</v>
+      <c r="BE54" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="BF54" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG54" s="3" t="n">
         <v>7</v>
@@ -9700,19 +9789,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>4</v>
@@ -9800,7 +9889,7 @@
         <v>1</v>
       </c>
       <c r="AT55" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
@@ -9808,7 +9897,7 @@
         <v>2</v>
       </c>
       <c r="AX55" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY55" s="3"/>
       <c r="AZ55" s="4" t="n">
@@ -9825,7 +9914,7 @@
       </c>
       <c r="BE55" s="3"/>
       <c r="BF55" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG55" s="3" t="n">
         <v>7</v>
@@ -9885,19 +9974,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G56" s="4" t="n">
         <v>4</v>
@@ -9980,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="AT56" s="8" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
@@ -9994,7 +10083,7 @@
       </c>
       <c r="BE56" s="3"/>
       <c r="BF56" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG56" s="3" t="n">
         <v>4</v>
@@ -10049,19 +10138,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G57" s="4" t="n">
         <v>4</v>
@@ -10145,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="AT57" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU57" s="0"/>
       <c r="AV57" s="0"/>
@@ -10159,7 +10248,7 @@
       </c>
       <c r="BE57" s="3"/>
       <c r="BF57" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG57" s="3" t="n">
         <v>4</v>
@@ -10214,19 +10303,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G58" s="4" t="n">
         <v>4</v>
@@ -10306,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="AT58" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
@@ -10320,7 +10409,7 @@
       </c>
       <c r="BE58" s="3"/>
       <c r="BF58" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG58" s="3" t="n">
         <v>4</v>
@@ -10382,19 +10471,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G59" s="4" t="n">
         <v>4</v>
@@ -10485,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="AT59" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
@@ -10499,7 +10588,7 @@
       </c>
       <c r="BE59" s="3"/>
       <c r="BF59" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG59" s="3" t="n">
         <v>3</v>
@@ -10552,19 +10641,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G60" s="4" t="n">
         <v>4</v>
@@ -10642,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="AT60" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
@@ -10656,7 +10745,7 @@
       </c>
       <c r="BE60" s="3"/>
       <c r="BF60" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG60" s="3" t="n">
         <v>3</v>
@@ -10709,19 +10798,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G61" s="4" t="n">
         <v>4</v>
@@ -10796,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="AT61" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
@@ -10810,7 +10899,7 @@
       </c>
       <c r="BE61" s="3"/>
       <c r="BF61" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG61" s="3" t="n">
         <v>3</v>
@@ -10860,19 +10949,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G62" s="4" t="n">
         <v>4</v>
@@ -10948,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="AT62" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
@@ -10962,7 +11051,7 @@
       </c>
       <c r="BE62" s="3"/>
       <c r="BF62" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG62" s="3" t="n">
         <v>1</v>
@@ -11010,19 +11099,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G63" s="4" t="n">
         <v>4</v>
@@ -11101,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="AT63" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
@@ -11115,7 +11204,7 @@
       </c>
       <c r="BE63" s="3"/>
       <c r="BF63" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG63" s="3" t="n">
         <v>3</v>
@@ -11168,19 +11257,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G64" s="4" t="n">
         <v>2</v>
@@ -11255,17 +11344,17 @@
         <v>2</v>
       </c>
       <c r="AT64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU64" s="8" t="s">
-        <v>145</v>
+        <v>93</v>
+      </c>
+      <c r="AU64" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="AV64" s="3"/>
       <c r="AW64" s="4" t="n">
         <v>2</v>
       </c>
       <c r="AX64" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="AY64" s="3"/>
       <c r="AZ64" s="4" t="n">
@@ -11279,7 +11368,7 @@
       </c>
       <c r="BE64" s="3"/>
       <c r="BF64" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG64" s="3" t="n">
         <v>2</v>
@@ -11323,19 +11412,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>4</v>
@@ -11422,19 +11511,19 @@
         <v>3</v>
       </c>
       <c r="AT65" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU65" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV65" s="8" t="s">
-        <v>171</v>
+        <v>97</v>
+      </c>
+      <c r="AU65" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV65" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="AW65" s="4" t="n">
         <v>3</v>
       </c>
       <c r="AX65" s="8" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="AY65" s="4" t="n">
         <v>1</v>
@@ -11451,11 +11540,11 @@
       <c r="BC65" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="BE65" s="8" t="s">
-        <v>190</v>
+      <c r="BE65" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="BF65" s="8" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="BG65" s="3" t="n">
         <v>9</v>
@@ -11511,19 +11600,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>4</v>
@@ -11612,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="AT66" s="8" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
@@ -11626,7 +11715,7 @@
       </c>
       <c r="BE66" s="3"/>
       <c r="BF66" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG66" s="3" t="n">
         <v>5</v>
@@ -11675,19 +11764,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G67" s="4" t="n">
         <v>4</v>
@@ -11776,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT67" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
@@ -11784,7 +11873,7 @@
         <v>2</v>
       </c>
       <c r="AX67" s="8" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="AY67" s="3"/>
       <c r="AZ67" s="4" t="n">
@@ -11798,7 +11887,7 @@
       </c>
       <c r="BE67" s="3"/>
       <c r="BF67" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG67" s="3" t="n">
         <v>5</v>
@@ -11851,19 +11940,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>4</v>
@@ -11952,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="AT68" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
@@ -11966,7 +12055,7 @@
       </c>
       <c r="BE68" s="3"/>
       <c r="BF68" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG68" s="3" t="n">
         <v>5</v>
@@ -12021,19 +12110,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>4</v>
@@ -12114,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="AT69" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
@@ -12125,7 +12214,7 @@
       </c>
       <c r="BE69" s="3"/>
       <c r="BF69" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG69" s="3" t="n">
         <v>5</v>
@@ -12180,19 +12269,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>4</v>
@@ -12278,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="AT70" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
@@ -12286,7 +12375,7 @@
         <v>2</v>
       </c>
       <c r="AX70" s="8" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="AY70" s="3"/>
       <c r="AZ70" s="4" t="n">
@@ -12300,7 +12389,7 @@
       </c>
       <c r="BE70" s="3"/>
       <c r="BF70" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG70" s="3" t="n">
         <v>4</v>
@@ -12355,19 +12444,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>2</v>
@@ -12445,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="AT71" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
@@ -12453,7 +12542,7 @@
         <v>2</v>
       </c>
       <c r="AX71" s="8" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="AY71" s="3"/>
       <c r="AZ71" s="4" t="n">
@@ -12467,7 +12556,7 @@
       </c>
       <c r="BE71" s="3"/>
       <c r="BF71" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG71" s="3" t="n">
         <v>1</v>
@@ -12513,19 +12602,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>4</v>
@@ -12613,7 +12702,7 @@
         <v>1</v>
       </c>
       <c r="AT72" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
@@ -12627,7 +12716,7 @@
       </c>
       <c r="BE72" s="3"/>
       <c r="BF72" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG72" s="3" t="n">
         <v>6</v>
@@ -12680,19 +12769,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>4</v>
@@ -12774,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="AT73" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU73" s="3"/>
       <c r="AV73" s="3"/>
@@ -12785,7 +12874,7 @@
       </c>
       <c r="BE73" s="3"/>
       <c r="BF73" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG73" s="3" t="n">
         <v>6</v>
@@ -12845,19 +12934,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>4</v>
@@ -12945,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="AT74" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
@@ -12959,7 +13048,7 @@
       </c>
       <c r="BE74" s="3"/>
       <c r="BF74" s="8" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="BG74" s="3" t="n">
         <v>6</v>
@@ -13006,19 +13095,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>4</v>
@@ -13100,7 +13189,7 @@
         <v>1</v>
       </c>
       <c r="AT75" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
@@ -13111,7 +13200,7 @@
       </c>
       <c r="BE75" s="3"/>
       <c r="BF75" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG75" s="3" t="n">
         <v>6</v>
@@ -13168,19 +13257,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>4</v>
@@ -13262,7 +13351,7 @@
         <v>1</v>
       </c>
       <c r="AT76" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
@@ -13273,7 +13362,7 @@
       </c>
       <c r="BE76" s="3"/>
       <c r="BF76" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG76" s="3" t="n">
         <v>6</v>
@@ -13327,19 +13416,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>2</v>
@@ -13420,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="AT77" s="8" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
@@ -13431,7 +13520,7 @@
       </c>
       <c r="BE77" s="3"/>
       <c r="BF77" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG77" s="3" t="n">
         <v>2</v>
@@ -13478,19 +13567,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>4</v>
@@ -13566,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="AT78" s="8" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
@@ -13574,7 +13663,7 @@
         <v>2</v>
       </c>
       <c r="AX78" s="8" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="AY78" s="3"/>
       <c r="AZ78" s="4" t="n">
@@ -13585,7 +13674,7 @@
       </c>
       <c r="BE78" s="3"/>
       <c r="BF78" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="BG78" s="3" t="n">
         <v>2</v>
@@ -13626,19 +13715,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>2</v>
@@ -13714,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="AT79" s="8" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
@@ -13725,7 +13814,7 @@
       </c>
       <c r="BE79" s="3"/>
       <c r="BF79" s="8" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="BG79" s="3" t="n">
         <v>1</v>
@@ -13769,19 +13858,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D80" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>2</v>
@@ -13857,7 +13946,7 @@
         <v>1</v>
       </c>
       <c r="AT80" s="8" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
@@ -13868,7 +13957,7 @@
       </c>
       <c r="BE80" s="3"/>
       <c r="BF80" s="8" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="BG80" s="3" t="n">
         <v>1</v>
@@ -13912,19 +14001,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>4</v>
@@ -14011,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="AT81" s="8" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
@@ -14025,7 +14114,7 @@
       </c>
       <c r="BE81" s="3"/>
       <c r="BF81" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG81" s="3" t="n">
         <v>5</v>
@@ -14080,19 +14169,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>4</v>
@@ -14163,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="AT82" s="8" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="AU82" s="3"/>
       <c r="AV82" s="3"/>
@@ -14177,7 +14266,7 @@
       </c>
       <c r="BE82" s="3"/>
       <c r="BF82" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG82" s="3" t="n">
         <v>3</v>
@@ -14223,19 +14312,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>3003</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G83" s="4" t="n">
         <v>4</v>
@@ -14313,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="AT83" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU83" s="3"/>
       <c r="AV83" s="3"/>
@@ -14324,7 +14413,7 @@
       </c>
       <c r="BE83" s="3"/>
       <c r="BF83" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG83" s="3" t="n">
         <v>2</v>
@@ -14382,19 +14471,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G84" s="4" t="n">
         <v>4</v>
@@ -14483,7 +14572,7 @@
         <v>1</v>
       </c>
       <c r="AT84" s="8" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="AU84" s="3"/>
       <c r="AV84" s="3"/>
@@ -14497,7 +14586,7 @@
       </c>
       <c r="BE84" s="3"/>
       <c r="BF84" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG84" s="3" t="n">
         <v>3</v>
@@ -14543,19 +14632,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G85" s="4" t="n">
         <v>4</v>
@@ -14644,7 +14733,7 @@
         <v>1</v>
       </c>
       <c r="AT85" s="8" t="s">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="AU85" s="3"/>
       <c r="AV85" s="3"/>
@@ -14658,7 +14747,7 @@
       </c>
       <c r="BE85" s="3"/>
       <c r="BF85" s="8" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="BG85" s="3" t="n">
         <v>3</v>
@@ -14704,19 +14793,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G86" s="4" t="n">
         <v>4</v>
@@ -14794,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="AT86" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU86" s="3"/>
       <c r="AV86" s="3"/>
@@ -14805,7 +14894,7 @@
       </c>
       <c r="BE86" s="3"/>
       <c r="BF86" s="8" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="BG86" s="3" t="n">
         <v>2</v>
@@ -14855,25 +14944,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I87" s="1" t="n">
         <v>6</v>
@@ -14906,20 +14995,20 @@
         <v>2</v>
       </c>
       <c r="W87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AA87" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD87" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="AE87" s="2"/>
       <c r="AF87" s="3" t="n">
@@ -14954,54 +15043,53 @@
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
       <c r="AS87" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT87" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX87" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT87" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA87" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="BB87" s="2"/>
       <c r="BC87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BD87" s="2"/>
-      <c r="BF87" s="7" t="s">
-        <v>173</v>
+      <c r="BF87" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="BG87" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH87" s="2"/>
       <c r="BI87" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="BJ87" s="2"/>
       <c r="BK87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BO87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA87" s="2"/>
       <c r="CB87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CH87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CI87" s="2"/>
       <c r="CJ87" s="2"/>
       <c r="CK87" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15009,25 +15097,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I88" s="1" t="n">
         <v>6</v>
@@ -15063,20 +15151,20 @@
         <v>2</v>
       </c>
       <c r="W88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AA88" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD88" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="AE88" s="2"/>
       <c r="AF88" s="3" t="n">
@@ -15111,57 +15199,56 @@
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
       <c r="AS88" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT88" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX88" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT88" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA88" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB88" s="2"/>
       <c r="BC88" s="2"/>
       <c r="BD88" s="2"/>
-      <c r="BF88" s="7" t="s">
-        <v>161</v>
+      <c r="BF88" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH88" s="2"/>
       <c r="BI88" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="BJ88" s="2"/>
       <c r="BK88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BO88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CB88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CD88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CH88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CI88" s="2"/>
       <c r="CJ88" s="2"/>
       <c r="CK88" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15169,25 +15256,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>3004</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>6</v>
@@ -15221,15 +15308,15 @@
         <v>1</v>
       </c>
       <c r="W89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD89" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="AE89" s="2"/>
       <c r="AF89" s="3" t="n">
@@ -15260,52 +15347,51 @@
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
       <c r="AS89" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT89" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX89" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT89" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA89" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="BB89" s="2"/>
       <c r="BC89" s="2"/>
       <c r="BD89" s="2"/>
-      <c r="BF89" s="7" t="s">
-        <v>153</v>
+      <c r="BF89" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="BG89" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH89" s="2"/>
       <c r="BI89" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="BJ89" s="2"/>
       <c r="BK89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CB89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CD89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CH89" s="2"/>
       <c r="CI89" s="2"/>
       <c r="CJ89" s="2"/>
       <c r="CK89" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15313,25 +15399,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I90" s="1" t="n">
         <v>6</v>
@@ -15362,15 +15448,15 @@
         <v>1</v>
       </c>
       <c r="W90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD90" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="AE90" s="2"/>
       <c r="AF90" s="3" t="n">
@@ -15405,50 +15491,49 @@
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
       <c r="AS90" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT90" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX90" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT90" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA90" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="BB90" s="2"/>
       <c r="BC90" s="2"/>
       <c r="BD90" s="2"/>
-      <c r="BF90" s="7" t="s">
-        <v>153</v>
+      <c r="BF90" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="BG90" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH90" s="2"/>
       <c r="BI90" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="BJ90" s="2"/>
       <c r="BK90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CB90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CD90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG90" s="2"/>
       <c r="CH90" s="2"/>
       <c r="CI90" s="2"/>
       <c r="CJ90" s="2"/>
       <c r="CK90" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15456,25 +15541,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>18</v>
@@ -15503,7 +15588,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="AD91" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE91" s="2"/>
       <c r="AF91" s="3" t="n">
@@ -15534,35 +15619,34 @@
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
       <c r="AS91" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT91" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX91" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT91" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA91" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB91" s="2"/>
       <c r="BC91" s="2"/>
       <c r="BD91" s="2"/>
-      <c r="BF91" s="7" t="s">
-        <v>161</v>
+      <c r="BF91" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG91" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH91" s="2"/>
       <c r="BI91" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ91" s="2"/>
       <c r="BZ91" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA91" s="2"/>
       <c r="CB91" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG91" s="2"/>
       <c r="CH91" s="2"/>
@@ -15575,25 +15659,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I92" s="1" t="n">
         <v>3</v>
@@ -15625,15 +15709,15 @@
         <v>1</v>
       </c>
       <c r="W92" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD92" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="AE92" s="2"/>
       <c r="AF92" s="3" t="n">
@@ -15666,47 +15750,46 @@
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT92" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX92" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT92" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA92" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB92" s="2"/>
       <c r="BC92" s="2"/>
       <c r="BD92" s="2"/>
-      <c r="BF92" s="7" t="s">
-        <v>161</v>
+      <c r="BF92" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH92" s="2"/>
       <c r="BI92" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="BJ92" s="2"/>
       <c r="BZ92" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA92" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CB92" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="CD92" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG92" s="2"/>
       <c r="CH92" s="2"/>
       <c r="CI92" s="2"/>
       <c r="CJ92" s="2"/>
       <c r="CK92" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15714,25 +15797,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I93" s="1" t="n">
         <v>3</v>
@@ -15761,15 +15844,15 @@
         <v>1</v>
       </c>
       <c r="W93" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD93" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="AE93" s="2"/>
       <c r="AF93" s="3" t="n">
@@ -15800,42 +15883,41 @@
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
       <c r="AS93" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT93" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX93" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT93" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA93" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB93" s="2"/>
       <c r="BC93" s="2"/>
       <c r="BD93" s="2"/>
-      <c r="BF93" s="7" t="s">
-        <v>161</v>
+      <c r="BF93" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG93" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH93" s="2"/>
       <c r="BI93" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ93" s="2"/>
       <c r="BZ93" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA93" s="2"/>
       <c r="CB93" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG93" s="2"/>
       <c r="CH93" s="2"/>
       <c r="CI93" s="2"/>
       <c r="CJ93" s="2"/>
       <c r="CK93" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15843,25 +15925,25 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>3002</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I94" s="1" t="n">
         <v>3</v>
@@ -15890,15 +15972,15 @@
         <v>1</v>
       </c>
       <c r="W94" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD94" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="AE94" s="2"/>
       <c r="AF94" s="3" t="n">
@@ -15929,42 +16011,41 @@
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
       <c r="AS94" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT94" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX94" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT94" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA94" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB94" s="2"/>
       <c r="BC94" s="2"/>
       <c r="BD94" s="2"/>
-      <c r="BF94" s="7" t="s">
-        <v>161</v>
+      <c r="BF94" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH94" s="2"/>
       <c r="BI94" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ94" s="2"/>
       <c r="BZ94" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA94" s="2"/>
       <c r="CB94" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG94" s="2"/>
       <c r="CH94" s="2"/>
       <c r="CI94" s="2"/>
       <c r="CJ94" s="2"/>
       <c r="CK94" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15972,25 +16053,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D95" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="H95" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I95" s="1" t="n">
         <v>7</v>
@@ -16019,7 +16100,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="AD95" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE95" s="2"/>
       <c r="AF95" s="3" t="n">
@@ -16050,35 +16131,34 @@
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
       <c r="AS95" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT95" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX95" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT95" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA95" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB95" s="2"/>
       <c r="BC95" s="2"/>
       <c r="BD95" s="2"/>
-      <c r="BF95" s="7" t="s">
-        <v>161</v>
+      <c r="BF95" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG95" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH95" s="2"/>
       <c r="BI95" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ95" s="2"/>
       <c r="BZ95" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA95" s="2"/>
       <c r="CB95" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG95" s="2"/>
       <c r="CH95" s="2"/>
@@ -16091,25 +16171,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="H96" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I96" s="1" t="n">
         <v>13</v>
@@ -16138,7 +16218,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="AD96" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE96" s="2"/>
       <c r="AF96" s="3" t="n">
@@ -16169,35 +16249,34 @@
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
       <c r="AS96" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT96" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX96" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT96" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA96" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB96" s="2"/>
       <c r="BC96" s="2"/>
       <c r="BD96" s="2"/>
-      <c r="BF96" s="7" t="s">
-        <v>161</v>
+      <c r="BF96" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG96" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH96" s="2"/>
       <c r="BI96" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ96" s="2"/>
       <c r="BZ96" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA96" s="2"/>
       <c r="CB96" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG96" s="2"/>
       <c r="CH96" s="2"/>
@@ -16210,25 +16289,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G97" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I97" s="1" t="n">
         <v>3</v>
@@ -16260,7 +16339,7 @@
         <v>2</v>
       </c>
       <c r="W97" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
@@ -16269,7 +16348,7 @@
         <v>4</v>
       </c>
       <c r="AD97" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE97" s="2"/>
       <c r="AF97" s="3" t="n">
@@ -16300,38 +16379,37 @@
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
       <c r="AS97" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT97" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX97" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT97" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="BA97" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB97" s="2"/>
       <c r="BC97" s="2"/>
       <c r="BD97" s="2"/>
-      <c r="BF97" s="7" t="s">
-        <v>161</v>
+      <c r="BF97" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG97" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH97" s="2"/>
       <c r="BI97" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ97" s="2"/>
       <c r="BV97" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ97" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA97" s="2"/>
       <c r="CB97" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG97" s="2"/>
       <c r="CH97" s="2"/>
@@ -16344,25 +16422,25 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D98" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G98" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I98" s="1" t="n">
         <v>3</v>
@@ -16394,7 +16472,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="AD98" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE98" s="2"/>
       <c r="AF98" s="3" t="n">
@@ -16425,40 +16503,39 @@
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
       <c r="AS98" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT98" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX98" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT98" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA98" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB98" s="2"/>
       <c r="BC98" s="2"/>
       <c r="BD98" s="2"/>
-      <c r="BF98" s="7" t="s">
-        <v>161</v>
+      <c r="BF98" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG98" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH98" s="2"/>
       <c r="BI98" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ98" s="2"/>
       <c r="BZ98" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA98" s="2"/>
       <c r="CB98" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG98" s="2"/>
       <c r="CH98" s="2"/>
       <c r="CI98" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CJ98" s="2"/>
       <c r="CK98" s="2"/>
@@ -16468,25 +16545,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D99" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G99" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I99" s="1" t="n">
         <v>4</v>
@@ -16517,7 +16594,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="AD99" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE99" s="2"/>
       <c r="AF99" s="3" t="n">
@@ -16548,41 +16625,40 @@
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
       <c r="AS99" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT99" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX99" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT99" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA99" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB99" s="2"/>
       <c r="BC99" s="2"/>
       <c r="BD99" s="2"/>
-      <c r="BF99" s="7" t="s">
-        <v>161</v>
+      <c r="BF99" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG99" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH99" s="2"/>
       <c r="BI99" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ99" s="2"/>
       <c r="BX99" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BY99" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ99" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA99" s="2"/>
       <c r="CB99" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG99" s="2"/>
       <c r="CH99" s="2"/>
@@ -16595,25 +16671,25 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D100" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G100" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I100" s="1" t="n">
         <v>3</v>
@@ -16642,7 +16718,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="AD100" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE100" s="2"/>
       <c r="AF100" s="3" t="n">
@@ -16673,35 +16749,34 @@
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
       <c r="AS100" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT100" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX100" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT100" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA100" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB100" s="2"/>
       <c r="BC100" s="2"/>
       <c r="BD100" s="2"/>
-      <c r="BF100" s="7" t="s">
-        <v>161</v>
+      <c r="BF100" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG100" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH100" s="2"/>
       <c r="BI100" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ100" s="2"/>
       <c r="BZ100" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA100" s="2"/>
       <c r="CB100" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG100" s="2"/>
       <c r="CH100" s="2"/>
@@ -16714,25 +16789,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D101" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G101" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I101" s="1" t="n">
         <v>3</v>
@@ -16761,7 +16836,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="AD101" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE101" s="2"/>
       <c r="AF101" s="3" t="n">
@@ -16792,35 +16867,34 @@
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
       <c r="AS101" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT101" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX101" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT101" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA101" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB101" s="2"/>
       <c r="BC101" s="2"/>
       <c r="BD101" s="2"/>
-      <c r="BF101" s="7" t="s">
-        <v>161</v>
+      <c r="BF101" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG101" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH101" s="2"/>
       <c r="BI101" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ101" s="2"/>
       <c r="BZ101" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA101" s="2"/>
       <c r="CB101" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG101" s="2"/>
       <c r="CH101" s="2"/>
@@ -16833,25 +16907,25 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D102" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G102" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I102" s="1" t="n">
         <v>3</v>
@@ -16877,7 +16951,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="AD102" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE102" s="2"/>
       <c r="AF102" s="3" t="n">
@@ -16908,41 +16982,40 @@
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
       <c r="AS102" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT102" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX102" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT102" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA102" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB102" s="2"/>
       <c r="BC102" s="2"/>
       <c r="BD102" s="2"/>
-      <c r="BF102" s="7" t="s">
-        <v>161</v>
+      <c r="BF102" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG102" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH102" s="2"/>
       <c r="BI102" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ102" s="2"/>
       <c r="BX102" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BY102" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BZ102" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA102" s="2"/>
       <c r="CB102" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG102" s="2"/>
       <c r="CH102" s="2"/>
@@ -16955,25 +17028,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="G103" s="7" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I103" s="1" t="n">
         <v>3</v>
@@ -16999,7 +17072,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="AD103" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE103" s="2"/>
       <c r="AF103" s="3" t="n">
@@ -17030,35 +17103,34 @@
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
       <c r="AS103" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT103" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX103" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AT103" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="BA103" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB103" s="2"/>
       <c r="BC103" s="2"/>
       <c r="BD103" s="2"/>
-      <c r="BF103" s="7" t="s">
-        <v>161</v>
+      <c r="BF103" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG103" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH103" s="2"/>
       <c r="BI103" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ103" s="2"/>
       <c r="BZ103" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CA103" s="2"/>
       <c r="CB103" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG103" s="2"/>
       <c r="CH103" s="2"/>
@@ -17071,25 +17143,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D104" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="H104" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I104" s="1" t="n">
         <v>1</v>
@@ -17116,15 +17188,15 @@
         <v>1</v>
       </c>
       <c r="W104" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AD104" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="AE104" s="2"/>
       <c r="AF104" s="3" t="n">
@@ -17155,39 +17227,38 @@
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
       <c r="AS104" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT104" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="AT104" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="AW104" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="AX104" s="2"/>
       <c r="AY104" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BA104" s="7" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="BB104" s="2"/>
       <c r="BC104" s="2"/>
       <c r="BD104" s="2"/>
-      <c r="BF104" s="7" t="s">
-        <v>161</v>
+      <c r="BF104" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="BG104" s="3" t="n">
         <v>0</v>
       </c>
       <c r="BH104" s="2"/>
       <c r="BI104" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="BJ104" s="2"/>
       <c r="BZ104" s="2"/>
       <c r="CA104" s="2"/>
       <c r="CB104" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="CG104" s="2"/>
       <c r="CH104" s="2"/>
@@ -17330,4 +17401,1325 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B104"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="16"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="16"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="16"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="16"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="16"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="16"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="16"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="16"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="16"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="16"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="16"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B86"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>